--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1201745.162927339</v>
+        <v>-1204342.994499975</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.46859940789051</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>155.7491753925971</v>
       </c>
       <c r="V2" t="n">
-        <v>145.964174497821</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.5057557111912</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.50612826256169</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>268.3565346176345</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>62.499123147201</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>141.9138526855538</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.0619344736784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>349.4600038786919</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>115.8744443146316</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>46.65631699100419</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>106.3146597181483</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>56.10180801516521</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.025003747472</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.63623515385397</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>167.3637267182072</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.9722800722539</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>221.6488161050624</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>98.99704524587895</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>68.64373283592734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>115.7228684476127</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,10 +3199,10 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541844</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652584</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.981188826526</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.983460896267</v>
+        <v>1206.346846950667</v>
       </c>
       <c r="C2" t="n">
-        <v>848.0209439558549</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="D2" t="n">
-        <v>848.0209439558549</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2326913576107</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4361,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2280.317721540164</v>
       </c>
       <c r="V2" t="n">
-        <v>2036.620500091997</v>
+        <v>1949.254834196593</v>
       </c>
       <c r="W2" t="n">
-        <v>1683.851844821882</v>
+        <v>1596.486178926479</v>
       </c>
       <c r="X2" t="n">
-        <v>1310.386086560803</v>
+        <v>1596.486178926479</v>
       </c>
       <c r="Y2" t="n">
-        <v>1310.386086560803</v>
+        <v>1206.346846950667</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>1758.982323005928</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>1590.046140078021</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>1439.929500665685</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>1292.016407083292</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>1145.126459585382</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>2497.181623084436</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.81679571298</v>
+        <v>2207.764453047475</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.81679571298</v>
+        <v>1979.774902149458</v>
       </c>
       <c r="Y4" t="n">
-        <v>827.02421656945</v>
+        <v>1758.982323005928</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.440264581601</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1196.477747641189</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>838.2120490344389</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>838.2120490344389</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>427.2261442448313</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645723</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1213.328013853487</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983421</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003247</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.5418494269122</v>
+        <v>923.9108438165264</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.208919851715</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1918.208919851715</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1559.943221244965</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1174.154968646721</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915837</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.7468436324423</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>406.7468436324423</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>406.7468436324423</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>406.7468436324423</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>259.8568961345319</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>259.8568961345319</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>113.6397093523897</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1538.389661503</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1538.389661503</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1283.705173297113</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062121</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.395308462682</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>172.349019141113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>506.2737913123336</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.1395539230176</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>819.2033709951107</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>669.086731582775</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>521.1736380003819</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>374.2836905024715</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794805</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2410.966886455156</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.365421478097</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.290194822295</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.605706616408</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.188536579448</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.19898568143</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5598,16 +5598,16 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>637.9025067654818</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2101.509986535919</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1812.434759880117</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1557.75027167423</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.333101637269</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1040.343550739252</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>819.5509715957215</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5774,25 +5774,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>275.900381799936</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2330.071297269541</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6376,7 +6376,7 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7087,19 +7087,19 @@
         <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634547</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589387</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.2652422555901</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>348.1671427403943</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>95.29607473586492</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>109.4223302771036</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0.3804465798162937</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>145.3900508477906</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>84.77391660562077</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>56.43317025503441</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>30.48882721876564</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.52709304638989</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>217.5407415533168</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>101.6825818796756</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048894</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194639</v>
@@ -26323,7 +26323,7 @@
         <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302513</v>
@@ -26338,13 +26338,13 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194635</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121056</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605434</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008425</v>
+        <v>55720.99847008436</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486233</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="N4" t="n">
+        <v>17938.00358486239</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17938.00358486242</v>
+      </c>
+      <c r="P4" t="n">
         <v>17938.00358486238</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17938.00358486236</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1111083.627680959</v>
+        <v>-1111443.710696677</v>
       </c>
       <c r="C6" t="n">
-        <v>-215772.4630471551</v>
+        <v>-215772.4630471555</v>
       </c>
       <c r="D6" t="n">
-        <v>-12333.72143504987</v>
+        <v>-12333.72143504967</v>
       </c>
       <c r="E6" t="n">
-        <v>-254874.15102278</v>
+        <v>-254908.8889482154</v>
       </c>
       <c r="F6" t="n">
-        <v>70538.31078457533</v>
+        <v>70503.57285913968</v>
       </c>
       <c r="G6" t="n">
-        <v>70538.31078457534</v>
+        <v>70503.57285913947</v>
       </c>
       <c r="H6" t="n">
-        <v>70538.3107845754</v>
+        <v>70503.57285913968</v>
       </c>
       <c r="I6" t="n">
-        <v>70538.31078457522</v>
+        <v>70503.57285913979</v>
       </c>
       <c r="J6" t="n">
-        <v>-97066.86702540716</v>
+        <v>-97101.60495084306</v>
       </c>
       <c r="K6" t="n">
-        <v>21428.21807852088</v>
+        <v>21393.48015308537</v>
       </c>
       <c r="L6" t="n">
-        <v>44204.56078705407</v>
+        <v>44204.56078705416</v>
       </c>
       <c r="M6" t="n">
-        <v>-21422.74915482618</v>
+        <v>-21422.74915482593</v>
       </c>
       <c r="N6" t="n">
-        <v>63632.27878068585</v>
+        <v>63632.27878068583</v>
       </c>
       <c r="O6" t="n">
-        <v>63632.27878068588</v>
+        <v>63632.27878068584</v>
       </c>
       <c r="P6" t="n">
-        <v>63632.27878068591</v>
+        <v>63632.2787806858</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,20 +26960,20 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>33.76322733186748</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>181.7880839723139</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.3262244707461</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27594,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>187.6315150612663</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>114.3773070458461</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>348.4226025062525</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>110.2237906382742</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.52271887841641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>57.41604186301953</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>270.363494341422</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>49.6961034188339</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>113.2342895580209</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.113138466567403e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>204.3779992811859</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33020,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34793,7 +34793,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294262</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>77.54037261451917</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
